--- a/biology/Botanique/Parc_des_Athlètes/Parc_des_Athlètes.xlsx
+++ b/biology/Botanique/Parc_des_Athlètes/Parc_des_Athlètes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_des_Athl%C3%A8tes</t>
+          <t>Parc_des_Athlètes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parc des Athlètes (en portugais : Parque Dos Atletas), appelé également Parque Olímpico Cidade do Rock, est un parc situé dans le quartier de Barra da Tijuca à Rio de Janeiro où sont organisés différents types d’événements. Il est connu pour accueillir le festival musical Rock In Rio.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_des_Athl%C3%A8tes</t>
+          <t>Parc_des_Athlètes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parc des Athlètes accueille chaque année plusieurs événements musicaux dont le festival Rock In Rio qui a eu lieu en 1985, 1991, 2001, 2011, et bientôt en 2013 et 2015 dans ce lieu. La capacité maximum pour les concerts est de 90 000 places, pour les festivals elle varie entre 200 000 et 250 000 places.
  Portail des espaces verts   Portail de Rio de Janeiro                    </t>
